--- a/project/App/yh/内部接口文档.xlsx
+++ b/project/App/yh/内部接口文档.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59">
   <si>
     <t>接口地址</t>
   </si>
@@ -123,6 +123,47 @@
   </si>
   <si>
     <t>{"code":0,"msg":"token 不合法!"}</t>
+  </si>
+  <si>
+    <t>/user/forget</t>
+  </si>
+  <si>
+    <t>忘记密码( 邮件发送 )</t>
+  </si>
+  <si>
+    <t>email(重置密码的邮箱)
+url(前端拼接地址)</t>
+  </si>
+  <si>
+    <t>用户邮箱将会 收到邮件,包含链接 eg: https://www.test.com/resetpasswd#urllink=UAYDT1dWBgMHAVYHCgcmRBMaBV4PRAcMUQJUBA0KVQM</t>
+  </si>
+  <si>
+    <t>/user/forget
+email=1771033392%40qq.com&amp;url=https%3A%2F%2Fwww.test.com%2Fresetpasswd%23urllink%3D</t>
+  </si>
+  <si>
+    <t>{"code":0,"msg":"邮箱尚未注册!!"}</t>
+  </si>
+  <si>
+    <t>/user/resetpasswd</t>
+  </si>
+  <si>
+    <t>忘记密码 设置密码</t>
+  </si>
+  <si>
+    <t>email(用户邮箱)
+token(用户邮箱链接中的随机码)
+passwd(新密码)</t>
+  </si>
+  <si>
+    <t>data值正常为1 (数据库受影响的行数)</t>
+  </si>
+  <si>
+    <t>/user/resetpasswd
+email=1771033392@qq.com&amp;passwd=123123&amp;token=UAYDT1dWBgMHAVYHCgcmRBMaBV4PRAcMUQJUBA0KVQM</t>
+  </si>
+  <si>
+    <t>{"code":1,"data":1}</t>
   </si>
   <si>
     <t>/user/login</t>
@@ -179,12 +220,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -201,6 +242,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -209,29 +265,76 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -245,110 +348,41 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -361,6 +395,162 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -373,175 +563,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -552,21 +586,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -588,23 +607,37 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -624,31 +657,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -657,156 +691,153 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1166,10 +1197,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:XFD10"/>
+  <dimension ref="A1:XFD12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1184,42 +1215,42 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="54" customHeight="1" spans="1:9">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="133" customHeight="1" spans="1:5">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1250,22 +1281,22 @@
       <c r="A4" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C4" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E4" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="3" t="s">
         <v>25</v>
       </c>
       <c r="I4" t="s">
@@ -1282,13 +1313,13 @@
       <c r="C5" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>28</v>
       </c>
       <c r="E5" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="3" t="s">
         <v>30</v>
       </c>
       <c r="H5" t="s">
@@ -1298,7 +1329,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" ht="39" customHeight="1" spans="1:9">
+    <row r="6" ht="78" customHeight="1" spans="1:9">
       <c r="A6" t="s">
         <v>33</v>
       </c>
@@ -1308,56 +1339,107 @@
       <c r="C6" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E6" t="s">
         <v>36</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="3" t="s">
         <v>37</v>
       </c>
       <c r="H6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" t="s">
         <v>38</v>
       </c>
-      <c r="I6" t="s">
+    </row>
+    <row r="7" ht="78" customHeight="1" spans="1:9">
+      <c r="A7" t="s">
         <v>39</v>
       </c>
+      <c r="B7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7" t="s">
+        <v>44</v>
+      </c>
+      <c r="I7" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="7" s="1" customFormat="1" ht="105" customHeight="1" spans="1:1">
-      <c r="A7" s="3" t="s">
-        <v>40</v>
+    <row r="8" ht="78" customHeight="1" spans="1:9">
+      <c r="A8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H8" t="s">
+        <v>50</v>
+      </c>
+      <c r="I8" t="s">
+        <v>51</v>
       </c>
     </row>
-    <row r="8" ht="42" customHeight="1"/>
-    <row r="9" ht="118" customHeight="1" spans="1:9">
-      <c r="A9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" t="s">
+    <row r="9" s="1" customFormat="1" ht="105" customHeight="1" spans="1:1">
+      <c r="A9" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" ht="42" customHeight="1"/>
+    <row r="11" ht="118" customHeight="1" spans="1:9">
+      <c r="A11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" t="s">
         <v>21</v>
       </c>
-      <c r="D9"/>
-      <c r="E9" t="s">
-        <v>43</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H9" t="s">
-        <v>45</v>
-      </c>
-      <c r="I9" t="s">
-        <v>46</v>
+      <c r="E11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H11" t="s">
+        <v>57</v>
+      </c>
+      <c r="I11" t="s">
+        <v>58</v>
       </c>
     </row>
-    <row r="10" ht="66" customHeight="1"/>
+    <row r="12" ht="66" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A7:XFD7"/>
+    <mergeCell ref="A9:XFD9"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
